--- a/explore/openCyto/manuscript/CorVals.xlsx
+++ b/explore/openCyto/manuscript/CorVals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kitty/git/auto-fcs/explore/openCyto/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E95ED6F-FA5F-3C49-88FB-DADCDCA75E97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998225BF-4E4C-C144-AB0E-086A9ECEE363}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="540" windowWidth="27920" windowHeight="17040" xr2:uid="{4AB27EBA-6E2C-E540-A7AF-885975E1EE39}"/>
   </bookViews>
